--- a/src/main/resources/xls/SuiteTruthItemsIOS.xlsx
+++ b/src/main/resources/xls/SuiteTruthItemsIOS.xlsx
@@ -4,11 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0" showInkAnnotation="0"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15940" windowWidth="25600" xWindow="-36480" yWindow="4340"/>
+    <workbookView activeTab="10" firstSheet="9" tabRatio="500" windowHeight="15940" windowWidth="35680" xWindow="-48820" yWindow="1640"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" r:id="rId1" sheetId="1"/>
     <sheet name="TruthItemTestEnvironmentIOS" r:id="rId2" sheetId="4"/>
+    <sheet name="TruthItemListIOS" r:id="rId3" sheetId="5"/>
+    <sheet name="TestPrimaryRoleIOS" r:id="rId4" sheetId="6"/>
+    <sheet name="TestPrimaryIndustryIOS" r:id="rId5" sheetId="7"/>
+    <sheet name="TestPrimaryProductIOS" r:id="rId6" sheetId="8"/>
+    <sheet name="TestPrimaryTechnologyIOS" r:id="rId7" sheetId="9"/>
+    <sheet name="TestChangePrimaryRoleIOS" r:id="rId8" sheetId="10"/>
+    <sheet name="TestChangePrimaryIndIOS" r:id="rId9" sheetId="11"/>
+    <sheet name="TestChangePrimaryTechIOS" r:id="rId10" sheetId="12"/>
+    <sheet name="TestChangePrimaryProdIOS" r:id="rId11" sheetId="13"/>
+    <sheet name="TestAddMoreIndustryIOS" r:id="rId12" sheetId="14"/>
+    <sheet name="TestAddMoreRoleIOS" r:id="rId13" sheetId="15"/>
+    <sheet name="TestAddMoreTechIOS" r:id="rId14" sheetId="16"/>
+    <sheet name="TestAddMoreProductIOS" r:id="rId15" sheetId="17"/>
+    <sheet name="NewAnswerQ1IOS" r:id="rId16" sheetId="24"/>
+    <sheet name="NewAnswerQ2IOS" r:id="rId17" sheetId="22"/>
+    <sheet name="NewAnswerQ3IOS" r:id="rId18" sheetId="23"/>
+    <sheet name="TestRolelistIOS" r:id="rId19" sheetId="25"/>
+    <sheet name="TestIndustryListIOS" r:id="rId20" sheetId="26"/>
+    <sheet name="TestTechnologylistIOS" r:id="rId21" sheetId="27"/>
+    <sheet name="TestProductlistIOS" r:id="rId22" sheetId="28"/>
+    <sheet name="Sheet1" r:id="rId23" sheetId="29"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -61,16 +82,145 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>Test Truth Item type list</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Validate if Primary exists for Role</t>
+  </si>
+  <si>
+    <t>Validate if Primary exists for Industry</t>
+  </si>
+  <si>
+    <t>Validate if Primary exists for Product</t>
+  </si>
+  <si>
+    <t>Validate if Primary exists for Technology</t>
+  </si>
+  <si>
+    <t>Validate thet the Primary can change for Role</t>
+  </si>
+  <si>
+    <t>Validate thet the Primary can change for Industry</t>
+  </si>
+  <si>
+    <t>Validate thet the Primary can change for Tech</t>
+  </si>
+  <si>
+    <t>Validate thet the Primary can change for Product</t>
+  </si>
+  <si>
+    <t>Test to add more Industry</t>
+  </si>
+  <si>
+    <t>Test to add more Roles</t>
+  </si>
+  <si>
+    <t>Test to add more Technology</t>
+  </si>
+  <si>
+    <t>Test to add more Product</t>
+  </si>
+  <si>
+    <t>Add a complete new Answer for Q1</t>
+  </si>
+  <si>
+    <t>Add a complete new Answer for Q2</t>
+  </si>
+  <si>
+    <t>Add a complete new Answer for Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Role tags List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Industry tags List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Technology tags List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product tags List </t>
+  </si>
+  <si>
     <t>TruthItemTestEnvironmentIOS</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>selectProjectIOSTSA</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>TruthItemListIOS</t>
+  </si>
+  <si>
+    <t>TestPrimaryRoleIOS</t>
+  </si>
+  <si>
+    <t>TestPrimaryIndustryIOS</t>
+  </si>
+  <si>
+    <t>TestPrimaryProductIOS</t>
+  </si>
+  <si>
+    <t>TestPrimaryTechnologyIOS</t>
+  </si>
+  <si>
+    <t>TestChangePrimaryRoleIOS</t>
+  </si>
+  <si>
+    <t>TestChangePrimaryIndIOS</t>
+  </si>
+  <si>
+    <t>TestChangePrimaryTechIOS</t>
+  </si>
+  <si>
+    <t>TestChangePrimaryProdIOS</t>
+  </si>
+  <si>
+    <t>TestAddMoreIndustryIOS</t>
+  </si>
+  <si>
+    <t>TestAddMoreRoleIOS</t>
+  </si>
+  <si>
+    <t>TestAddMoreTechIOS</t>
+  </si>
+  <si>
+    <t>TestAddMoreProductIOS</t>
+  </si>
+  <si>
+    <t>NewAnswerQ1IOS</t>
+  </si>
+  <si>
+    <t>NewAnswerQ2IOS</t>
+  </si>
+  <si>
+    <t>NewAnswerQ3IOS</t>
+  </si>
+  <si>
+    <t>TestRolelistIOS</t>
+  </si>
+  <si>
+    <t>TestIndustryListIOS</t>
+  </si>
+  <si>
+    <t>TestTechnologylistIOS</t>
+  </si>
+  <si>
+    <t>TestProductlistIOS</t>
+  </si>
+  <si>
+    <t>selectProjectIOSTSB</t>
+  </si>
+  <si>
+    <t>Question 2 answer was found</t>
+  </si>
+  <si>
+    <t>Question 3 answer was found</t>
+  </si>
+  <si>
+    <t>Catering tag was found</t>
+  </si>
+  <si>
+    <t>Architects - Technical tag was found</t>
   </si>
 </sst>
 </file>
@@ -78,7 +228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,8 +252,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +279,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,7 +301,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -145,14 +314,47 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="42">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
@@ -163,6 +365,36 @@
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="19"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="20"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="21"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="22"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="23"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="24"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="25"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="26"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="27"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="28"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="29"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="30"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="31"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="32"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="33"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="34"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="35"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="36"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="37"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="38"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="39"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="40"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="41"/>
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
@@ -493,16 +725,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="28.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.33203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="6.76953125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -522,7 +754,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -530,8 +762,243 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -545,12 +1012,763 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.23828125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.76953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.23828125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="37.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.76953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.23828125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="31.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -558,8 +1776,8 @@
     <col min="2" max="2" customWidth="true" width="31.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="49.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.76953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.23828125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -596,17 +1814,14 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -620,4 +1835,752 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="lukeskywalker-test@yopmail.com" r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="lukeskywalker-test@yopmail.com" r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="lukeskywalker-test@yopmail.com" r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="34.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>